--- a/data/advance_report.xlsx
+++ b/data/advance_report.xlsx
@@ -1580,7 +1580,9 @@
       <c r="F35" s="10" t="n"/>
       <c r="G35" s="10" t="n"/>
       <c r="H35" s="11" t="n"/>
-      <c r="I35" s="9" t="n"/>
+      <c r="I35" s="9" t="n">
+        <v>490</v>
+      </c>
       <c r="J35" s="10" t="n"/>
       <c r="K35" s="11" t="n"/>
       <c r="L35" s="36" t="n"/>
